--- a/RHCP_Californication.xlsx
+++ b/RHCP_Californication.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hasasy2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amol/Documents/Machine Learning Projects/TopicModelingSongLyrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21640" windowHeight="16900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,12 +31,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
-  <si>
-    <t>Album Title</t>
-  </si>
-  <si>
-    <t>Song Title</t>
-  </si>
   <si>
     <t>Lyrics</t>
   </si>
@@ -687,6 +687,12 @@
 Start off when we operated
 Turing up in solid stated
 Oh Lord</t>
+  </si>
+  <si>
+    <t>Album</t>
+  </si>
+  <si>
+    <t>Song</t>
   </si>
 </sst>
 </file>
@@ -1009,179 +1015,179 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="94" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.08984375" customWidth="1"/>
-    <col min="2" max="2" width="24.1796875" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="409" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:3" ht="409" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="409" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="409" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="409" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="409" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="8" spans="1:3" ht="409" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="9" spans="1:3" ht="409" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="10" spans="1:3" ht="409" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="11" spans="1:3" ht="409" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="12" spans="1:3" ht="409" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="13" spans="1:3" ht="409" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="14" spans="1:3" ht="409" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="15" spans="1:3" ht="409" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
